--- a/biology/Botanique/Frederik_Børgesen/Frederik_Børgesen.xlsx
+++ b/biology/Botanique/Frederik_Børgesen/Frederik_Børgesen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frederik_B%C3%B8rgesen</t>
+          <t>Frederik_Børgesen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fredrik Christian Emil Børgesen (1er janvier 1866, Copenhague - 22 mars 1956, Frederiksberg) est un botaniste et un phycologue danois. Après son diplôme en botanique de l'Université de Copenhague il travailla comme assistant au Musée botanique (1893-1900). Sa thèse de doctorat portait sur les algues marines des îles Féroé (1904). Par la suite il devint bibliothécaire à la Bibliothèque du Jardin botanique (1900 à 1935).
 Il effectua des enquêtes sur les algues marines par exemple autour de l'Inde, à Maurice, aux îles Canaries et aux Antilles.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frederik_B%C3%B8rgesen</t>
+          <t>Frederik_Børgesen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,17 @@
           <t>Choix de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Børgesen, F. &amp; Paulsen, O. (1898) Om Vegetationen paa De dansk-vestindiske Øer. København: Nordisk Forlag. 114 pp[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Børgesen, F. &amp; Paulsen, O. (1898) Om Vegetationen paa De dansk-vestindiske Øer. København: Nordisk Forlag. 114 pp.
 Ce travail est le résultat d'études menées au cours de l'expédition au Venezuela et aux Antilles organisée par Eugen Warming en 1891-1892.
 L'ensemble du travail a une apparence "warmingienne" caractéristique, organisé comme il est d’après les types principaux de végétation (végétation halophyte, végétation psammophyte, etc.) et avec les descriptions (y compris les dessins au trait) de la morphologie des feuilles et des tiges en relation avec l'habitat. Børgesen et Paulsen étaient des élèves d’Eugen Warming. Par la suite, tous les deux ont suivi leurs propres voies, surtout pour la phycologie et la biologie marine.
 Botanique des îles Féroé
-Ces trois études ont ensuite été réimprimées en un seul volume[2]:
+Ces trois études ont ensuite été réimprimées en un seul volume:
 Børgesen, F. (1903) Marine algæ. In Vol. II, p. 339–532. Copenhague et Londres
-Børgesen, F. (1908) The algæ-vegetation of the Færöese coasts, with remarks on the phyto-geoography. In Vol. III, p. 683–834. Copenhagen and London[2].
+Børgesen, F. (1908) The algæ-vegetation of the Færöese coasts, with remarks on the phyto-geoography. In Vol. III, p. 683–834. Copenhagen and London.
 Børgesen, F. &amp; Jónsson, H. (1908) The distribution of the marine algæ of the Arctic Sea and of the northernmost part of the Atlantic. In Vol. III Appendix pp. i-xxviii.
 Børgesen, F. (1904) "Om Algevegetationen ved Færøernes Kyster". Gyldendalske Boghandel, Copenhagen. Doctoral dissertation, University of Copenhagen.
 Børgesen, F. &amp; Raunkiær, C. (1918) ""Mosses and Lichens collected in the former Danish West Indies"". Dansk Botanisk Arkiv 2(9):1-18.
